--- a/test_accuracy.xlsx
+++ b/test_accuracy.xlsx
@@ -572,82 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="3">
@@ -657,82 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1494505494505494</v>
+        <v>0.956140350877193</v>
       </c>
     </row>
     <row r="4">
@@ -742,82 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.956140350877193</v>
       </c>
     </row>
     <row r="5">
@@ -827,82 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="6">
@@ -912,82 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="7">
@@ -997,82 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9385964912280702</v>
       </c>
     </row>
     <row r="8">
@@ -1082,82 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.956140350877193</v>
       </c>
     </row>
     <row r="9">
@@ -1167,82 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="10">
@@ -1252,82 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.7807017543859649</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.7982456140350878</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.7982456140350878</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.7982456140350878</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.8508771929824561</v>
       </c>
     </row>
     <row r="11">
@@ -1337,82 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
     </row>
     <row r="12">
@@ -1422,82 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="13">
@@ -1507,82 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
     </row>
     <row r="14">
@@ -1592,82 +1592,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="15">
@@ -1677,82 +1677,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="16">
@@ -1762,82 +1762,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9035087719298246</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1362637362637363</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9122807017543859</v>
       </c>
     </row>
     <row r="17">
@@ -1847,82 +1847,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1032967032967033</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1120879120879121</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1186813186813187</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.1208791208791209</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
     <row r="18">
@@ -1932,82 +1932,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1230769230769231</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1252747252747253</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1252747252747253</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1252747252747253</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1274725274725275</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1274725274725275</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1274725274725275</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1274725274725275</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1296703296703297</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="19">
@@ -2017,82 +2017,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1406593406593407</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1472527472527473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1626373626373626</v>
+        <v>0.9385964912280702</v>
       </c>
     </row>
     <row r="20">
@@ -2102,82 +2102,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1274725274725275</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1164835164835165</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1296703296703297</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9649122807017544</v>
       </c>
     </row>
     <row r="21">
@@ -2187,82 +2187,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1340659340659341</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.1450549450549451</v>
+        <v>0.9210526315789473</v>
       </c>
     </row>
   </sheetData>
